--- a/datasets/External Sets.xlsx
+++ b/datasets/External Sets.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\backup_for_E\activechem\datasets\invivo_compounds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ccj\active learning\Drug-likeness-predictor\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04CFB2D-4179-4332-A9DE-AA098BB88E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A77623B-D95F-4317-91EA-1BF5866A5875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="645" windowWidth="17850" windowHeight="14970" activeTab="3" xr2:uid="{8F3C1D5B-AD91-4488-B7EC-DDAF3B177831}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8F3C1D5B-AD91-4488-B7EC-DDAF3B177831}"/>
   </bookViews>
   <sheets>
-    <sheet name="External Set1" sheetId="1" r:id="rId1"/>
-    <sheet name="External Set2" sheetId="2" r:id="rId2"/>
-    <sheet name="External Set3" sheetId="3" r:id="rId3"/>
-    <sheet name="Exteral Set4" sheetId="4" r:id="rId4"/>
+    <sheet name="In vivo compounds" sheetId="1" r:id="rId1"/>
+    <sheet name="Investigational compounds" sheetId="2" r:id="rId2"/>
+    <sheet name="Approved drugs" sheetId="3" r:id="rId3"/>
+    <sheet name="Clinical terminated compounds" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -6060,8 +6060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00E3476-E5ED-46C7-8F45-FCF8633C6686}">
   <dimension ref="A1:A1370"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A1370"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21638,7 +21638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC6E308-FF1C-4F47-AA6E-67E71AD0ABFD}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A25"/>
     </sheetView>
   </sheetViews>
